--- a/ficha.xlsx
+++ b/ficha.xlsx
@@ -444,6 +444,9 @@
       <c r="F2">
         <v>74</v>
       </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -464,6 +467,9 @@
       <c r="F3">
         <v>66</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -584,9 +590,6 @@
       <c r="F9">
         <v>9</v>
       </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -607,9 +610,6 @@
       <c r="F10">
         <v>61</v>
       </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -630,9 +630,6 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -896,10 +893,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>22017686</v>
+        <v>22017519</v>
       </c>
       <c r="B25" t="str">
-        <v>CAPA PROTE COMMUTER IPHONE 6 BCO/CZA PLC</v>
+        <v>CAPA OTTERBOX SYMMETRY IPHONE 6 PRETO</v>
       </c>
       <c r="C25" t="str">
         <v>ARM F.20.3</v>
@@ -916,10 +913,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>22018225</v>
+        <v>22017603</v>
       </c>
       <c r="B26" t="str">
-        <v>HARMAN JBL T110BT (PRETO)</v>
+        <v>PELICULA PROTETORA ALPHA IPHONE 6 - 5.5</v>
       </c>
       <c r="C26" t="str">
         <v>ARM F.20.3</v>
@@ -936,10 +933,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>22017603</v>
+        <v>22018225</v>
       </c>
       <c r="B27" t="str">
-        <v>PELICULA PROTETORA ALPHA IPHONE 6 - 5.5</v>
+        <v>HARMAN JBL T110BT (PRETO)</v>
       </c>
       <c r="C27" t="str">
         <v>ARM F.20.3</v>
@@ -956,10 +953,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>22017520</v>
+        <v>22017686</v>
       </c>
       <c r="B28" t="str">
-        <v>CAPA OTTERBOX SYMMETRY IPHONE 6 BCO/CNZA</v>
+        <v>CAPA PROTE COMMUTER IPHONE 6 BCO/CZA PLC</v>
       </c>
       <c r="C28" t="str">
         <v>ARM F.20.3</v>
@@ -976,10 +973,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>22017519</v>
+        <v>22017520</v>
       </c>
       <c r="B29" t="str">
-        <v>CAPA OTTERBOX SYMMETRY IPHONE 6 PRETO</v>
+        <v>CAPA OTTERBOX SYMMETRY IPHONE 6 BCO/CNZA</v>
       </c>
       <c r="C29" t="str">
         <v>ARM F.20.3</v>
@@ -1016,10 +1013,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>22017611</v>
+        <v>22017659</v>
       </c>
       <c r="B31" t="str">
-        <v>CAPA UNCOMMON LG G3 C2001-JM (SMOKE)</v>
+        <v>CAPA PROTETORA SYMMETRY PRETO GALAXY S6</v>
       </c>
       <c r="C31" t="str">
         <v>ARM F.22.2</v>
@@ -1031,15 +1028,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>22017445</v>
+        <v>22017521</v>
       </c>
       <c r="B32" t="str">
-        <v>OTTERBOX COMMUTER GALAXY S5 PRTO PLC</v>
+        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
       </c>
       <c r="C32" t="str">
         <v>ARM F.22.2</v>
@@ -1051,7 +1048,7 @@
         <v>MOVEL</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1076,10 +1073,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>22017521</v>
+        <v>22017695</v>
       </c>
       <c r="B34" t="str">
-        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
+        <v>HARMAN JBL GO (PRETO)</v>
       </c>
       <c r="C34" t="str">
         <v>ARM F.22.2</v>
@@ -1091,7 +1088,7 @@
         <v>MOVEL</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1116,10 +1113,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>22017659</v>
+        <v>22017766</v>
       </c>
       <c r="B36" t="str">
-        <v>CAPA PROTETORA SYMMETRY PRETO GALAXY S6</v>
+        <v>PELICULA VIDRO ANTI-ESPIÃƒ IPHONE 6 PLUS</v>
       </c>
       <c r="C36" t="str">
         <v>ARM F.22.2</v>
@@ -1131,15 +1128,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>22017695</v>
+        <v>22017445</v>
       </c>
       <c r="B37" t="str">
-        <v>HARMAN JBL GO (PRETO)</v>
+        <v>OTTERBOX COMMUTER GALAXY S5 PRTO PLC</v>
       </c>
       <c r="C37" t="str">
         <v>ARM F.22.2</v>
@@ -1156,10 +1153,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>22017766</v>
+        <v>22017611</v>
       </c>
       <c r="B38" t="str">
-        <v>PELICULA VIDRO ANTI-ESPIÃƒ IPHONE 6 PLUS</v>
+        <v>CAPA UNCOMMON LG G3 C2001-JM (SMOKE)</v>
       </c>
       <c r="C38" t="str">
         <v>ARM F.22.2</v>
@@ -1171,15 +1168,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>22017409</v>
+        <v>22017658</v>
       </c>
       <c r="B39" t="str">
-        <v>OTTERBOX COMMUTER GALAXY S5 BCO/CNZA PLC</v>
+        <v>CAPA COMMUTER PRTO GALAXY S6 C/ PELICULA</v>
       </c>
       <c r="C39" t="str">
         <v>ARM F.22.3</v>
@@ -1196,10 +1193,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>22017661</v>
+        <v>22017409</v>
       </c>
       <c r="B40" t="str">
-        <v>CAPA COMMUTER GLX S6 BCO/CNZA C PELICULA</v>
+        <v>OTTERBOX COMMUTER GALAXY S5 BCO/CNZA PLC</v>
       </c>
       <c r="C40" t="str">
         <v>ARM F.22.3</v>
@@ -1216,10 +1213,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>22017658</v>
+        <v>22017412</v>
       </c>
       <c r="B41" t="str">
-        <v>CAPA COMMUTER PRTO GALAXY S6 C/ PELICULA</v>
+        <v>HEADPHONE SAM GALXY LEVEL ON EAR BCO/BGE</v>
       </c>
       <c r="C41" t="str">
         <v>ARM F.22.3</v>
@@ -1231,15 +1228,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>22017662</v>
+        <v>22017523</v>
       </c>
       <c r="B42" t="str">
-        <v>CAPA SYMMETRY GALAXY S6 BRANCO/CINZA</v>
+        <v>OTTERBOX COMMUTER IPHONE 6 PLUS PRETO</v>
       </c>
       <c r="C42" t="str">
         <v>ARM F.22.3</v>
@@ -1256,10 +1253,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>22017657</v>
+        <v>22017524</v>
       </c>
       <c r="B43" t="str">
-        <v>CAPA PROTETORA DEFENDER GALAXY S6 PRETO</v>
+        <v>OTTERBOX COMMUTER IPHONE 6 PLUS BCO/CNZA</v>
       </c>
       <c r="C43" t="str">
         <v>ARM F.22.3</v>
@@ -1276,10 +1273,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>22017655</v>
+        <v>22017529</v>
       </c>
       <c r="B44" t="str">
-        <v>PELICULA PROTETORA ALPHA GLASS GALAXY S6</v>
+        <v>OTTERBOX SYMMETRY IPHONE 6 PLUS PRETO</v>
       </c>
       <c r="C44" t="str">
         <v>ARM F.22.3</v>
@@ -1291,15 +1288,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>22017408</v>
+        <v>22017530</v>
       </c>
       <c r="B45" t="str">
-        <v>OTTERBOX COMMUTER IPHO 5/5S BCO/CNZA PLC</v>
+        <v>OTTER SYMMETRY IPHONE 6 PLUS BRANCO/CNZA</v>
       </c>
       <c r="C45" t="str">
         <v>ARM F.22.3</v>
@@ -1311,15 +1308,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F45">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>22017602</v>
+        <v>22017566</v>
       </c>
       <c r="B46" t="str">
-        <v>CAPA UNCOMMON IPHONE6 PLUS TRANSPARENTE</v>
+        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
       </c>
       <c r="C46" t="str">
         <v>ARM F.22.3</v>
@@ -1331,15 +1328,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>22017566</v>
+        <v>22017602</v>
       </c>
       <c r="B47" t="str">
-        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
+        <v>CAPA UNCOMMON IPHONE6 PLUS TRANSPARENTE</v>
       </c>
       <c r="C47" t="str">
         <v>ARM F.22.3</v>
@@ -1351,15 +1348,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>22017530</v>
+        <v>22017655</v>
       </c>
       <c r="B48" t="str">
-        <v>OTTER SYMMETRY IPHONE 6 PLUS BRANCO/CNZA</v>
+        <v>PELICULA PROTETORA ALPHA GLASS GALAXY S6</v>
       </c>
       <c r="C48" t="str">
         <v>ARM F.22.3</v>
@@ -1371,15 +1368,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>22017529</v>
+        <v>22017657</v>
       </c>
       <c r="B49" t="str">
-        <v>OTTERBOX SYMMETRY IPHONE 6 PLUS PRETO</v>
+        <v>CAPA PROTETORA DEFENDER GALAXY S6 PRETO</v>
       </c>
       <c r="C49" t="str">
         <v>ARM F.22.3</v>
@@ -1391,15 +1388,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>22017524</v>
+        <v>22017408</v>
       </c>
       <c r="B50" t="str">
-        <v>OTTERBOX COMMUTER IPHONE 6 PLUS BCO/CNZA</v>
+        <v>OTTERBOX COMMUTER IPHO 5/5S BCO/CNZA PLC</v>
       </c>
       <c r="C50" t="str">
         <v>ARM F.22.3</v>
@@ -1411,15 +1408,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>22017523</v>
+        <v>22017661</v>
       </c>
       <c r="B51" t="str">
-        <v>OTTERBOX COMMUTER IPHONE 6 PLUS PRETO</v>
+        <v>CAPA COMMUTER GLX S6 BCO/CNZA C PELICULA</v>
       </c>
       <c r="C51" t="str">
         <v>ARM F.22.3</v>
@@ -1431,15 +1428,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>22017412</v>
+        <v>22017662</v>
       </c>
       <c r="B52" t="str">
-        <v>HEADPHONE SAM GALXY LEVEL ON EAR BCO/BGE</v>
+        <v>CAPA SYMMETRY GALAXY S6 BRANCO/CINZA</v>
       </c>
       <c r="C52" t="str">
         <v>ARM F.22.3</v>
@@ -1451,7 +1448,7 @@
         <v>MOVEL</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">

--- a/ficha.xlsx
+++ b/ficha.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,33 +427,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0456-0158-8</v>
+        <v>22017521</v>
       </c>
       <c r="B2" t="str">
-        <v>SUP PASSAGEM CABO OPT AS E CORD DIELETR</v>
+        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
       </c>
       <c r="C2" t="str">
-        <v>ARM D.22.6</v>
+        <v>ARM F.22.2</v>
       </c>
       <c r="D2" t="str">
         <v>ESTOQUE LIVRE</v>
       </c>
       <c r="E2" t="str">
-        <v>FIXA</v>
+        <v>MOVEL</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>TGSA39264000</v>
+        <v>22017566</v>
       </c>
       <c r="B3" t="str">
-        <v>SAMSUNG A326B SMART  PT PPB/PI324/14</v>
+        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
       </c>
       <c r="C3" t="str">
-        <v>ARM F.22.1</v>
+        <v>ARM F.22.3</v>
       </c>
       <c r="D3" t="str">
         <v>ESTOQUE LIVRE</v>
@@ -462,18 +465,21 @@
         <v>MOVEL</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>22017521</v>
+        <v>22017556</v>
       </c>
       <c r="B4" t="str">
-        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
+        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
       </c>
       <c r="C4" t="str">
-        <v>ARM F.22.2</v>
+        <v>ARM F.22.3</v>
       </c>
       <c r="D4" t="str">
         <v>ESTOQUE LIVRE</v>
@@ -482,52 +488,15 @@
         <v>MOVEL</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>22017566</v>
-      </c>
-      <c r="B5" t="str">
-        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
-      </c>
-      <c r="C5" t="str">
-        <v>ARM F.22.3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>ESTOQUE LIVRE</v>
-      </c>
-      <c r="E5" t="str">
-        <v>MOVEL</v>
-      </c>
-      <c r="F5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>22017556</v>
-      </c>
-      <c r="B6" t="str">
-        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
-      </c>
-      <c r="C6" t="str">
-        <v>ARM F.22.3</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ESTOQUE LIVRE</v>
-      </c>
-      <c r="E6" t="str">
-        <v>MOVEL</v>
-      </c>
-      <c r="F6">
+      <c r="G4">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ficha.xlsx
+++ b/ficha.xlsx
@@ -444,9 +444,6 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -467,9 +464,6 @@
       <c r="F3">
         <v>6</v>
       </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -488,9 +482,6 @@
         <v>MOVEL</v>
       </c>
       <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
         <v>6</v>
       </c>
     </row>

--- a/ficha.xlsx
+++ b/ficha.xlsx
@@ -444,6 +444,9 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -464,6 +467,9 @@
       <c r="F3">
         <v>6</v>
       </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -482,6 +488,9 @@
         <v>MOVEL</v>
       </c>
       <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
     </row>

--- a/ficha.xlsx
+++ b/ficha.xlsx
@@ -397,32 +397,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>item</v>
+        <v>Item</v>
       </c>
       <c r="B1" t="str">
-        <v>descricao</v>
+        <v>Descricao</v>
       </c>
       <c r="C1" t="str">
-        <v>endereco</v>
+        <v>Endereco</v>
       </c>
       <c r="D1" t="str">
-        <v>tipoEstoque</v>
+        <v>Tip.Estoque</v>
       </c>
       <c r="E1" t="str">
-        <v>catItem</v>
+        <v>Cat.Item</v>
       </c>
       <c r="F1" t="str">
-        <v>saldoWms</v>
+        <v>Dispon.Exped.</v>
       </c>
       <c r="G1" t="str">
-        <v>saldoFisico</v>
+        <v>Primeira Contagem</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Segunda Contagem</v>
       </c>
     </row>
     <row r="2">
@@ -450,13 +453,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>22017566</v>
+        <v>22017522</v>
       </c>
       <c r="B3" t="str">
-        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
+        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
       </c>
       <c r="C3" t="str">
-        <v>ARM F.22.3</v>
+        <v>ARM F.22.2</v>
       </c>
       <c r="D3" t="str">
         <v>ESTOQUE LIVRE</v>
@@ -465,15 +468,18 @@
         <v>MOVEL</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>22017556</v>
+        <v>22017566</v>
       </c>
       <c r="B4" t="str">
         <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
@@ -496,7 +502,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ficha.xlsx
+++ b/ficha.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,13 +430,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>22017521</v>
+        <v>TGMO43312000</v>
       </c>
       <c r="B2" t="str">
-        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
+        <v>MOTOROLA XT2243-1  SMARTPHONE AZ</v>
       </c>
       <c r="C2" t="str">
-        <v>ARM F.22.2</v>
+        <v>ARM E.01.2</v>
       </c>
       <c r="D2" t="str">
         <v>ESTOQUE LIVRE</v>
@@ -453,13 +453,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>22017522</v>
+        <v>DGAP18763000</v>
       </c>
       <c r="B3" t="str">
-        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
+        <v>APPLE IPHONE 14 PRO MAX 512GB PT</v>
       </c>
       <c r="C3" t="str">
-        <v>ARM F.22.2</v>
+        <v>ARM E.05.4</v>
       </c>
       <c r="D3" t="str">
         <v>ESTOQUE LIVRE</v>
@@ -468,24 +468,21 @@
         <v>MOVEL</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>22017566</v>
+        <v>TGSA463R4000</v>
       </c>
       <c r="B4" t="str">
-        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
+        <v>SSG GALAXY S911B 128GB VT PPB/PI291/14</v>
       </c>
       <c r="C4" t="str">
-        <v>ARM F.22.3</v>
+        <v>ARM E.06.3</v>
       </c>
       <c r="D4" t="str">
         <v>ESTOQUE LIVRE</v>
@@ -500,9 +497,864 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TGSA46664000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>SSG GALAXY S918B 256GB PT PPB/PI291/14</v>
+      </c>
+      <c r="C5" t="str">
+        <v>ARM E.07.1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E5" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TGSA46184000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>SSG A042M SMART 64GB CB PPB/PI291/14</v>
+      </c>
+      <c r="C6" t="str">
+        <v>ARM E.07.3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E6" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TGSA475R4000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>SSG GALAXY A546E 256GB VT PPB/PI291/14</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ARM E.08.1</v>
+      </c>
+      <c r="D7" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E7" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F7">
+        <v>386</v>
+      </c>
+      <c r="G7">
+        <v>383</v>
+      </c>
+      <c r="H7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>DGAP17963000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>APPLE IPHONE 14 PLUS 256GB PT</v>
+      </c>
+      <c r="C8" t="str">
+        <v>ARM E.08.4</v>
+      </c>
+      <c r="D8" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E8" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>22021059</v>
+      </c>
+      <c r="B9" t="str">
+        <v>OVVI CM CP ANTIBAC IPHONE 14 PRO MAX LL</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ARM E.08.5</v>
+      </c>
+      <c r="D9" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E9" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>22021154</v>
+      </c>
+      <c r="B10" t="str">
+        <v>OVVI CM CP SILICONE IPHONE 14 PLUS RS</v>
+      </c>
+      <c r="C10" t="str">
+        <v>ARM E.08.6</v>
+      </c>
+      <c r="D10" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E10" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>TGSA462R4000</v>
+      </c>
+      <c r="B11" t="str">
+        <v>SSG GALAXY S916B 512GB VT PPB/PI291/14</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ARM E.09.2</v>
+      </c>
+      <c r="D11" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E11" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>DGAP19366000</v>
+      </c>
+      <c r="B12" t="str">
+        <v>APPLE WATCH SE 2ND LTE 40MM PT DEMO</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ARM E.09.4</v>
+      </c>
+      <c r="D12" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E12" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>TGSA46764000</v>
+      </c>
+      <c r="B13" t="str">
+        <v>SSG GALAXY S918B 512GB PT PPB/PI291/14</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ARM E.10.1</v>
+      </c>
+      <c r="D13" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E13" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TGSA43564000</v>
+      </c>
+      <c r="B14" t="str">
+        <v>SAMSUNG GALAXY A536E PT PPB/PI291/14</v>
+      </c>
+      <c r="C14" t="str">
+        <v>ARM E.10.3</v>
+      </c>
+      <c r="D14" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E14" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>TGSA431G4000</v>
+      </c>
+      <c r="B15" t="str">
+        <v>SSG GALAXY S901E 256GB VD PPB/PI291/14</v>
+      </c>
+      <c r="C15" t="str">
+        <v>ARM E.11.2</v>
+      </c>
+      <c r="D15" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E15" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>TGSA463A4000</v>
+      </c>
+      <c r="B16" t="str">
+        <v>SSG GALAXY S911B 128GB BG PPB/PI291/14</v>
+      </c>
+      <c r="C16" t="str">
+        <v>ARM E.11.3</v>
+      </c>
+      <c r="D16" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E16" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>TGSA471R4000</v>
+      </c>
+      <c r="B17" t="str">
+        <v>SSG GALAXY G990E 256GB VT PPB/PI291/14</v>
+      </c>
+      <c r="C17" t="str">
+        <v>ARM E.11.3</v>
+      </c>
+      <c r="D17" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E17" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TGSA464G4000</v>
+      </c>
+      <c r="B18" t="str">
+        <v>SSG GALAXY S911B 256GB VD PPB/PI291/14</v>
+      </c>
+      <c r="C18" t="str">
+        <v>ARM E.12.2</v>
+      </c>
+      <c r="D18" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E18" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>22020705</v>
+      </c>
+      <c r="B19" t="str">
+        <v>AMAZON ECHO DOT 3 GERAÇÃO ALEXA PT</v>
+      </c>
+      <c r="C19" t="str">
+        <v>ARM E.12.5</v>
+      </c>
+      <c r="D19" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E19" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F19">
+        <v>228</v>
+      </c>
+      <c r="G19">
+        <v>198</v>
+      </c>
+      <c r="H19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>TGSA464R4000</v>
+      </c>
+      <c r="B20" t="str">
+        <v>SSG GALAXY S911B 256GB VT PPB/PI291/14</v>
+      </c>
+      <c r="C20" t="str">
+        <v>ARM E.13.3</v>
+      </c>
+      <c r="D20" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E20" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>TGSA428G4000</v>
+      </c>
+      <c r="B21" t="str">
+        <v>SSG GALAXY S901E 128GB VD PPB/PI291/14</v>
+      </c>
+      <c r="C21" t="str">
+        <v>ARM E.14.3</v>
+      </c>
+      <c r="D21" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E21" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TGSA46864000</v>
+      </c>
+      <c r="B22" t="str">
+        <v>SSG GALAXY S916B 256GB PT PPB/PI291/14</v>
+      </c>
+      <c r="C22" t="str">
+        <v>ARM E.14.3</v>
+      </c>
+      <c r="D22" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E22" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>DGAP181R3000</v>
+      </c>
+      <c r="B23" t="str">
+        <v xml:space="preserve"> IPHONE 14 PRO 128GB RX</v>
+      </c>
+      <c r="C23" t="str">
+        <v>ARM E.14.4</v>
+      </c>
+      <c r="D23" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E23" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>22020867</v>
+      </c>
+      <c r="B24" t="str">
+        <v>SSG CAPA SILICONE C ARGOLA Z FLIP 4 AM</v>
+      </c>
+      <c r="C24" t="str">
+        <v>ARM E.15.3</v>
+      </c>
+      <c r="D24" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E24" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>22020075</v>
+      </c>
+      <c r="B25" t="str">
+        <v>GEONAV ALIMENTADOR PET INTELIGENTE WI-FI</v>
+      </c>
+      <c r="C25" t="str">
+        <v>ARM E.15.6</v>
+      </c>
+      <c r="D25" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E25" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F25">
+        <v>34</v>
+      </c>
+      <c r="G25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>DGAP182R3000</v>
+      </c>
+      <c r="B26" t="str">
+        <v>APPLE IPHONE 14 PRO 256GB RX</v>
+      </c>
+      <c r="C26" t="str">
+        <v>ARM E.16.4</v>
+      </c>
+      <c r="D26" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>DGAP18966000</v>
+      </c>
+      <c r="B27" t="str">
+        <v>APPLE WATCH SERIE 8 LTE 45MM PT DEMO</v>
+      </c>
+      <c r="C27" t="str">
+        <v>ARM E.19.4</v>
+      </c>
+      <c r="D27" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E27" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>22020860</v>
+      </c>
+      <c r="B28" t="str">
+        <v>SSG CAPA PROT SLIM STANDING Z FOLD4 PT</v>
+      </c>
+      <c r="C28" t="str">
+        <v>ARM E.20.3</v>
+      </c>
+      <c r="D28" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E28" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>22020763</v>
+      </c>
+      <c r="B29" t="str">
+        <v>MULTILASER BALANÇA BT C/ HANDLE HC060 BR</v>
+      </c>
+      <c r="C29" t="str">
+        <v>ARM F.02.4</v>
+      </c>
+      <c r="D29" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>22019789</v>
+      </c>
+      <c r="B30" t="str">
+        <v>MULTILASER TWS AIRBUD PT</v>
+      </c>
+      <c r="C30" t="str">
+        <v>ARM F.04.2</v>
+      </c>
+      <c r="D30" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E30" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>22020356</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CUSTOMIC PEL VD COM BORDA IPHONE 13 MINI</v>
+      </c>
+      <c r="C31" t="str">
+        <v>ARM F.07.1</v>
+      </c>
+      <c r="D31" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E31" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>22020715</v>
+      </c>
+      <c r="B32" t="str">
+        <v>AMAZON ECHO SHOW 15  ALEXA  PT</v>
+      </c>
+      <c r="C32" t="str">
+        <v>ARM F.10.4</v>
+      </c>
+      <c r="D32" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E32" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>22021567</v>
+      </c>
+      <c r="B33" t="str">
+        <v>CUSTOMIC CAPA GALAXY A23 5G IMPAC CLEAR</v>
+      </c>
+      <c r="C33" t="str">
+        <v>ARM F.14.1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E33" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F33">
+        <v>49</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>22019936</v>
+      </c>
+      <c r="B34" t="str">
+        <v>SAMSUNG CARREG. SEM FIO DUO EP-P4300T PT</v>
+      </c>
+      <c r="C34" t="str">
+        <v>ARM F.14.3</v>
+      </c>
+      <c r="D34" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E34" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>22021375</v>
+      </c>
+      <c r="B35" t="str">
+        <v>HARMAN JBL ENDURANCE PEAK 3 PT</v>
+      </c>
+      <c r="C35" t="str">
+        <v>ARM F.14.4</v>
+      </c>
+      <c r="D35" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E35" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>22021566</v>
+      </c>
+      <c r="B36" t="str">
+        <v>CUSTOMIC CAPA GALAXY A14 IMPACTOR CLEAR</v>
+      </c>
+      <c r="C36" t="str">
+        <v>ARM F.16.1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E36" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F36">
+        <v>46</v>
+      </c>
+      <c r="G36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>22020275</v>
+      </c>
+      <c r="B37" t="str">
+        <v>APPLE CP SILIC MAGSAFE IPHONE 13 MINI PT</v>
+      </c>
+      <c r="C37" t="str">
+        <v>ARM F.16.2</v>
+      </c>
+      <c r="D37" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E37" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F37">
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>22019527</v>
+      </c>
+      <c r="B38" t="str">
+        <v>ELG CARREGADOR VEICULAR CC2S BR</v>
+      </c>
+      <c r="C38" t="str">
+        <v>ARM F.19.2</v>
+      </c>
+      <c r="D38" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E38" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>DGAP19366000</v>
+      </c>
+      <c r="B39" t="str">
+        <v>APPLE WATCH SE 2ND LTE 40MM PT DEMO</v>
+      </c>
+      <c r="C39" t="str">
+        <v>DOCA 5</v>
+      </c>
+      <c r="D39" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E39" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>DGAP18966000</v>
+      </c>
+      <c r="B40" t="str">
+        <v>APPLE WATCH SERIE 8 LTE 45MM PT DEMO</v>
+      </c>
+      <c r="C40" t="str">
+        <v>DOCA 5</v>
+      </c>
+      <c r="D40" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E40" t="str">
+        <v>MOVEL</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H40"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ficha.xlsx
+++ b/ficha.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,90 +427,2062 @@
       <c r="H1" t="str">
         <v>Segunda Contagem</v>
       </c>
+      <c r="I1" t="str">
+        <v>Usuário</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>22017521</v>
+        <v>0380-8934-3</v>
       </c>
       <c r="B2" t="str">
-        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
+        <v>CONECTOR OPT FAC SC/APC DROP FIG8 COMPAC</v>
       </c>
       <c r="C2" t="str">
-        <v>ARM E.09.2</v>
+        <v>ARM A.10.1</v>
       </c>
       <c r="D2" t="str">
         <v>ESTOQUE LIVRE</v>
       </c>
       <c r="E2" t="str">
-        <v>MOVEL</v>
+        <v>FIXA</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>6179</v>
+      </c>
+      <c r="G2">
+        <v>6179</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Geziel</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>22017521</v>
+        <v>0043-0001-7</v>
       </c>
       <c r="B3" t="str">
-        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
+        <v>TOMADA RJ45 FEMÊA CAIXA SUPERF.0018</v>
       </c>
       <c r="C3" t="str">
-        <v>ARM F.22.2</v>
+        <v>ARM A.29.4</v>
       </c>
       <c r="D3" t="str">
         <v>ESTOQUE LIVRE</v>
       </c>
       <c r="E3" t="str">
-        <v>MOVEL</v>
+        <v>FIXA</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>441</v>
+      </c>
+      <c r="G3">
+        <v>440</v>
+      </c>
+      <c r="H3">
+        <v>441</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Eduardo</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>22017522</v>
+        <v>0387-0225-6</v>
       </c>
       <c r="B4" t="str">
-        <v>OTTERBOX SYMMETRY IPHONE 6 ROSA/VERDE</v>
+        <v>FIXA CABO / FIXA FI</v>
       </c>
       <c r="C4" t="str">
-        <v>ARM F.22.2</v>
+        <v>ARM A.30.1</v>
       </c>
       <c r="D4" t="str">
         <v>ESTOQUE LIVRE</v>
       </c>
       <c r="E4" t="str">
-        <v>MOVEL</v>
+        <v>FIXA</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>9619</v>
+      </c>
+      <c r="G4">
+        <v>9620</v>
+      </c>
+      <c r="H4">
+        <v>9619</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Eduardo</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0192-0450-0</v>
+        <v>0005-0029-2</v>
       </c>
       <c r="B5" t="str">
-        <v>CAPA UNCOMMON IPHONE 6 PLUS (PRETO)</v>
+        <v>FECHO PARA FITA DE ACO INOX 304 19.0 X 1</v>
       </c>
       <c r="C5" t="str">
-        <v>ARM F.22.3</v>
+        <v>ARM A.34.2</v>
       </c>
       <c r="D5" t="str">
         <v>ESTOQUE LIVRE</v>
       </c>
       <c r="E5" t="str">
-        <v>FIXA</v>
+        <v>PADRAO</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0005-0023-5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>COTOVELO EXTERNO 20 X 10MM</v>
+      </c>
+      <c r="C6" t="str">
+        <v>ARM A.34.3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E6" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0005-0025-7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>COTOVELO PLÁSTICO EXTERNO 20X10MM</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ARM A.37.2</v>
+      </c>
+      <c r="D7" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E7" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F7">
+        <v>206</v>
+      </c>
+      <c r="G7">
+        <v>206</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0056-0004-5</v>
+      </c>
+      <c r="B8" t="str">
+        <v>IDENTIFICADOR PARA DROP ÓPTICO - INTERNO</v>
+      </c>
+      <c r="C8" t="str">
+        <v>ARM A.40.3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E8" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F8">
+        <v>34517</v>
+      </c>
+      <c r="G8">
+        <v>34517</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0005-0018-0</v>
+      </c>
+      <c r="B9" t="str">
+        <v>CANALETA C/ DIVISÓRIA 20X10X2,10</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ARM B.01.1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E9" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F9">
+        <v>1059</v>
+      </c>
+      <c r="G9">
+        <v>1059</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C10" t="str">
+        <v>ARM B.02.3</v>
+      </c>
+      <c r="D10" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E10" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F10">
+        <v>234</v>
+      </c>
+      <c r="G10">
+        <v>234</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0186-0018-2</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CORDAO FO MONOFIBRA 3M SC/APC-SC/APC</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ARM B.03.1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E11" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F11">
+        <v>7421</v>
+      </c>
+      <c r="G11">
+        <v>7421</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ARM B.05.5</v>
+      </c>
+      <c r="D12" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E12" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F12">
+        <v>234</v>
+      </c>
+      <c r="G12">
+        <v>234</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ARM B.06.5</v>
+      </c>
+      <c r="D13" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E13" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F13">
+        <v>234</v>
+      </c>
+      <c r="G13">
+        <v>234</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C14" t="str">
+        <v>ARM B.07.3</v>
+      </c>
+      <c r="D14" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E14" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F14">
+        <v>234</v>
+      </c>
+      <c r="G14">
+        <v>234</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C15" t="str">
+        <v>ARM B.07.4</v>
+      </c>
+      <c r="D15" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E15" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F15">
+        <v>234</v>
+      </c>
+      <c r="G15">
+        <v>234</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C16" t="str">
+        <v>ARM B.07.5</v>
+      </c>
+      <c r="D16" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E16" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F16">
+        <v>234</v>
+      </c>
+      <c r="G16">
+        <v>234</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C17" t="str">
+        <v>ARM B.10.7</v>
+      </c>
+      <c r="D17" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E17" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F17">
+        <v>234</v>
+      </c>
+      <c r="G17">
+        <v>234</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C18" t="str">
+        <v>ARM B.11.7</v>
+      </c>
+      <c r="D18" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E18" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F18">
+        <v>234</v>
+      </c>
+      <c r="G18">
+        <v>234</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C19" t="str">
+        <v>ARM B.16.3</v>
+      </c>
+      <c r="D19" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E19" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F19">
+        <v>234</v>
+      </c>
+      <c r="G19">
+        <v>234</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C20" t="str">
+        <v>ARM B.17.5</v>
+      </c>
+      <c r="D20" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E20" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F20">
+        <v>234</v>
+      </c>
+      <c r="G20">
+        <v>234</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C21" t="str">
+        <v>ARM B.21.4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E21" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F21">
+        <v>234</v>
+      </c>
+      <c r="G21">
+        <v>234</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C22" t="str">
+        <v>ARM B.21.5</v>
+      </c>
+      <c r="D22" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E22" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F22">
+        <v>234</v>
+      </c>
+      <c r="G22">
+        <v>234</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C23" t="str">
+        <v>ARM C.03.4</v>
+      </c>
+      <c r="D23" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E23" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F23">
+        <v>214</v>
+      </c>
+      <c r="G23">
+        <v>214</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0005-0017-9</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CABO CAT.5E</v>
+      </c>
+      <c r="C24" t="str">
+        <v>ARM C.07.1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E24" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F24">
+        <v>915</v>
+      </c>
+      <c r="G24">
+        <v>915</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C25" t="str">
+        <v>ARM C.18.4</v>
+      </c>
+      <c r="D25" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E25" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F25">
+        <v>234</v>
+      </c>
+      <c r="G25">
+        <v>234</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C26" t="str">
+        <v>ARM C.18.5</v>
+      </c>
+      <c r="D26" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E26" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F26">
+        <v>234</v>
+      </c>
+      <c r="G26">
+        <v>234</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C27" t="str">
+        <v>ARM C.18.7</v>
+      </c>
+      <c r="D27" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E27" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F27">
+        <v>234</v>
+      </c>
+      <c r="G27">
+        <v>234</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C28" t="str">
+        <v>ARM C.19.5</v>
+      </c>
+      <c r="D28" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E28" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F28">
+        <v>234</v>
+      </c>
+      <c r="G28">
+        <v>234</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C29" t="str">
+        <v>ARM C.21.2</v>
+      </c>
+      <c r="D29" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E29" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F29">
+        <v>234</v>
+      </c>
+      <c r="G29">
+        <v>234</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C30" t="str">
+        <v>ARM C.22.4</v>
+      </c>
+      <c r="D30" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E30" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F30">
+        <v>234</v>
+      </c>
+      <c r="G30">
+        <v>234</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C31" t="str">
+        <v>ARM C.23.2</v>
+      </c>
+      <c r="D31" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E31" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F31">
+        <v>204</v>
+      </c>
+      <c r="G31">
+        <v>234</v>
+      </c>
+      <c r="H31">
+        <v>204</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Eduardo</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C32" t="str">
+        <v>ARM C.23.3</v>
+      </c>
+      <c r="D32" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E32" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F32">
+        <v>234</v>
+      </c>
+      <c r="G32">
+        <v>234</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C33" t="str">
+        <v>ARM C.29.5</v>
+      </c>
+      <c r="D33" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E33" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F33">
+        <v>234</v>
+      </c>
+      <c r="G33">
+        <v>234</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C34" t="str">
+        <v>ARM C.29.6</v>
+      </c>
+      <c r="D34" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E34" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F34">
+        <v>234</v>
+      </c>
+      <c r="G34">
+        <v>234</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C35" t="str">
+        <v>ARM C.30.2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E35" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F35">
+        <v>234</v>
+      </c>
+      <c r="G35">
+        <v>234</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C36" t="str">
+        <v>ARM C.30.3</v>
+      </c>
+      <c r="D36" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E36" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F36">
+        <v>212</v>
+      </c>
+      <c r="G36">
+        <v>182</v>
+      </c>
+      <c r="H36">
+        <v>212</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Eduardo</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C37" t="str">
+        <v>ARM C.30.4</v>
+      </c>
+      <c r="D37" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E37" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F37">
+        <v>234</v>
+      </c>
+      <c r="G37">
+        <v>234</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C38" t="str">
+        <v>ARM C.30.5</v>
+      </c>
+      <c r="D38" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E38" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F38">
+        <v>217</v>
+      </c>
+      <c r="G38">
+        <v>217</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C39" t="str">
+        <v>ARM C.30.6</v>
+      </c>
+      <c r="D39" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E39" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F39">
+        <v>234</v>
+      </c>
+      <c r="G39">
+        <v>234</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C40" t="str">
+        <v>ARM C.30.7</v>
+      </c>
+      <c r="D40" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E40" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F40">
+        <v>234</v>
+      </c>
+      <c r="G40">
+        <v>234</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C41" t="str">
+        <v>ARM C.31.2</v>
+      </c>
+      <c r="D41" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E41" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F41">
+        <v>234</v>
+      </c>
+      <c r="G41">
+        <v>234</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C42" t="str">
+        <v>ARM C.31.3</v>
+      </c>
+      <c r="D42" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E42" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F42">
+        <v>234</v>
+      </c>
+      <c r="G42">
+        <v>234</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C43" t="str">
+        <v>ARM C.31.4</v>
+      </c>
+      <c r="D43" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E43" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F43">
+        <v>234</v>
+      </c>
+      <c r="G43">
+        <v>234</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C44" t="str">
+        <v>ARM C.31.5</v>
+      </c>
+      <c r="D44" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E44" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F44">
+        <v>234</v>
+      </c>
+      <c r="G44">
+        <v>234</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C45" t="str">
+        <v>ARM C.31.6</v>
+      </c>
+      <c r="D45" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E45" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F45">
+        <v>234</v>
+      </c>
+      <c r="G45">
+        <v>234</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C46" t="str">
+        <v>ARM C.31.7</v>
+      </c>
+      <c r="D46" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E46" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F46">
+        <v>234</v>
+      </c>
+      <c r="G46">
+        <v>234</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C47" t="str">
+        <v>ARM C.32.2</v>
+      </c>
+      <c r="D47" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E47" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F47">
+        <v>234</v>
+      </c>
+      <c r="G47">
+        <v>234</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C48" t="str">
+        <v>ARM C.32.3</v>
+      </c>
+      <c r="D48" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E48" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F48">
+        <v>234</v>
+      </c>
+      <c r="G48">
+        <v>234</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C49" t="str">
+        <v>ARM C.32.4</v>
+      </c>
+      <c r="D49" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E49" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F49">
+        <v>234</v>
+      </c>
+      <c r="G49">
+        <v>234</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C50" t="str">
+        <v>ARM C.32.5</v>
+      </c>
+      <c r="D50" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E50" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F50">
+        <v>234</v>
+      </c>
+      <c r="G50">
+        <v>234</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C51" t="str">
+        <v>ARM C.32.6</v>
+      </c>
+      <c r="D51" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E51" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F51">
+        <v>234</v>
+      </c>
+      <c r="G51">
+        <v>234</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0192-0427-6</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Kit VDSL Askey Unificado</v>
+      </c>
+      <c r="C52" t="str">
+        <v>ARM C.32.7</v>
+      </c>
+      <c r="D52" t="str">
+        <v>X161 - ESTOQUE NÃO VALORADO</v>
+      </c>
+      <c r="E52" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F52">
+        <v>234</v>
+      </c>
+      <c r="G52">
+        <v>234</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Alderi</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>ROUP1816</v>
+      </c>
+      <c r="B53" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - FEMININO TAM: 38</v>
+      </c>
+      <c r="C53" t="str">
+        <v>ARM C.33.3</v>
+      </c>
+      <c r="D53" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E53" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>ROUP1663</v>
+      </c>
+      <c r="B54" t="str">
+        <v>JAQUETA NYLON CONSULTOR FEMININO MODELO 2015 TAM G</v>
+      </c>
+      <c r="C54" t="str">
+        <v>ARM C.35.2</v>
+      </c>
+      <c r="D54" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E54" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F54">
+        <v>23</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>ROUP2021</v>
+      </c>
+      <c r="B55" t="str">
+        <v>MSOMMER - CAMISETA CONSULTOR / GURU FEM - FEMININO TAM: P</v>
+      </c>
+      <c r="C55" t="str">
+        <v>ARM C.35.3</v>
+      </c>
+      <c r="D55" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E55" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>ROUP1668</v>
+      </c>
+      <c r="B56" t="str">
+        <v>JAQUETA SARJA GURU MASCULINO MODELO 2015 TAM M</v>
+      </c>
+      <c r="C56" t="str">
+        <v>ARM C.37.3</v>
+      </c>
+      <c r="D56" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E56" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F56">
+        <v>19</v>
+      </c>
+      <c r="G56">
+        <v>18</v>
+      </c>
+      <c r="H56">
+        <v>18</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>ROUP1685</v>
+      </c>
+      <c r="B57" t="str">
+        <v>MSOMMER - CALÇA C/ ELÁSTICO - GERENTE / CONSULTOR / GURU - GESTANTE TAM: GG</v>
+      </c>
+      <c r="C57" t="str">
+        <v>ARM C.38.5</v>
+      </c>
+      <c r="D57" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E57" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>ROUP1921</v>
+      </c>
+      <c r="B58" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - MASCULINO TAM: 42</v>
+      </c>
+      <c r="C58" t="str">
+        <v>ARM C.39.4</v>
+      </c>
+      <c r="D58" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E58" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F58">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>24</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>ROUP1920</v>
+      </c>
+      <c r="B59" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - MASCULINO TAM: 44</v>
+      </c>
+      <c r="C59" t="str">
+        <v>ARM C.39.5</v>
+      </c>
+      <c r="D59" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E59" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F59">
+        <v>60</v>
+      </c>
+      <c r="G59">
+        <v>50</v>
+      </c>
+      <c r="H59">
+        <v>60</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>ROUP1922</v>
+      </c>
+      <c r="B60" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - MASCULINO TAM: 46</v>
+      </c>
+      <c r="C60" t="str">
+        <v>ARM C.39.5</v>
+      </c>
+      <c r="D60" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E60" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F60">
+        <v>29</v>
+      </c>
+      <c r="G60">
+        <v>29</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>ROUP1840</v>
+      </c>
+      <c r="B61" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - MASCULINO TAM: 48</v>
+      </c>
+      <c r="C61" t="str">
+        <v>ARM C.39.5</v>
+      </c>
+      <c r="D61" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E61" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>50</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>ROUP1923</v>
+      </c>
+      <c r="B62" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - MASCULINO TAM: 40</v>
+      </c>
+      <c r="C62" t="str">
+        <v>ARM C.39.5</v>
+      </c>
+      <c r="D62" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E62" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>ROUP1685</v>
+      </c>
+      <c r="B63" t="str">
+        <v>MSOMMER - CALÇA C/ ELÁSTICO - GERENTE / CONSULTOR / GURU - GESTANTE TAM: GG</v>
+      </c>
+      <c r="C63" t="str">
+        <v>ARM C.42.7</v>
+      </c>
+      <c r="D63" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E63" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>ROUP1663</v>
+      </c>
+      <c r="B64" t="str">
+        <v>JAQUETA NYLON CONSULTOR FEMININO MODELO 2015 TAM G</v>
+      </c>
+      <c r="C64" t="str">
+        <v>ARM C.44.5</v>
+      </c>
+      <c r="D64" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E64" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>30</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>roup3042</v>
+      </c>
+      <c r="B65" t="str">
+        <v>MSOMMER - JAQUETA NYLON CONSULTOR FEM - FEMININO TAM: P</v>
+      </c>
+      <c r="C65" t="str">
+        <v>ARM C.44.5</v>
+      </c>
+      <c r="D65" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E65" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>ROUP1840</v>
+      </c>
+      <c r="B66" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - MASCULINO TAM: 48</v>
+      </c>
+      <c r="C66" t="str">
+        <v>ARM C.45.4</v>
+      </c>
+      <c r="D66" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E66" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>ROUP1668</v>
+      </c>
+      <c r="B67" t="str">
+        <v>JAQUETA SARJA GURU MASCULINO MODELO 2015 TAM M</v>
+      </c>
+      <c r="C67" t="str">
+        <v>ARM C.46.7</v>
+      </c>
+      <c r="D67" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E67" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0186-0018-2</v>
+      </c>
+      <c r="B68" t="str">
+        <v>CORDAO FO MONOFIBRA 3M SC/APC-SC/APC</v>
+      </c>
+      <c r="C68" t="str">
+        <v>ARM D.05.3</v>
+      </c>
+      <c r="D68" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E68" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F68">
+        <v>1000</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0692-0616-6</v>
+      </c>
+      <c r="B69" t="str">
+        <v>DATACOM DM SWITCH2104G2 EDD</v>
+      </c>
+      <c r="C69" t="str">
+        <v>ARM D.05.4</v>
+      </c>
+      <c r="D69" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E69" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F69">
+        <v>44</v>
+      </c>
+      <c r="G69">
+        <v>44</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0692-0616-6</v>
+      </c>
+      <c r="B70" t="str">
+        <v>DATACOM DM SWITCH2104G2 EDD</v>
+      </c>
+      <c r="C70" t="str">
+        <v>ARM D.08.1</v>
+      </c>
+      <c r="D70" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E70" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70">
+        <v>14</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0692-0779-9</v>
+      </c>
+      <c r="B71" t="str">
+        <v>CABO E1 ADAPTADOR - RJ45 -BNC</v>
+      </c>
+      <c r="C71" t="str">
+        <v>ARM D.09.2</v>
+      </c>
+      <c r="D71" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E71" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0092-1032-2</v>
+      </c>
+      <c r="B72" t="str">
+        <v>C.FAB.JH296A - ROTEADOR DIGITAL 1GBE SFP</v>
+      </c>
+      <c r="C72" t="str">
+        <v>ARM D.18.4</v>
+      </c>
+      <c r="D72" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E72" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>ROUP1828</v>
+      </c>
+      <c r="B73" t="str">
+        <v>MSOMMER - CAMISETA CONSULTOR / GURU FEM - FEMININO TAM: M</v>
+      </c>
+      <c r="C73" t="str">
+        <v>ARM E.27.4</v>
+      </c>
+      <c r="D73" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E73" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F73">
+        <v>28</v>
+      </c>
+      <c r="G73">
+        <v>28</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>ROUP1840</v>
+      </c>
+      <c r="B74" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - MASCULINO TAM: 48</v>
+      </c>
+      <c r="C74" t="str">
+        <v>ARM E.28.3</v>
+      </c>
+      <c r="D74" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E74" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>30</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>ROUP1817</v>
+      </c>
+      <c r="B75" t="str">
+        <v>MSOMMER - CALÇA GERENTE / CONSULTOR / GURU - FEMININO TAM: 40</v>
+      </c>
+      <c r="C75" t="str">
+        <v>ARM E.44.6</v>
+      </c>
+      <c r="D75" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E75" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0460-0080-0</v>
+      </c>
+      <c r="B76" t="str">
+        <v>CDPS SP1:4 CAIXA DERIV PRE-C SPLIT</v>
+      </c>
+      <c r="C76" t="str">
+        <v>E ARM H 1 4</v>
+      </c>
+      <c r="D76" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E76" t="str">
+        <v>PADRAO</v>
+      </c>
+      <c r="F76">
+        <v>71</v>
+      </c>
+      <c r="G76">
+        <v>71</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0460-0080-0</v>
+      </c>
+      <c r="B77" t="str">
+        <v>CDPS SP1:4 CAIXA DERIV PRE-C SPLIT</v>
+      </c>
+      <c r="C77" t="str">
+        <v>E ARM H 21 5</v>
+      </c>
+      <c r="D77" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E77" t="str">
+        <v>PADRAO</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0456-0188-8</v>
+      </c>
+      <c r="B78" t="str">
+        <v>CAIXA DE EMENDA PRECON SELADA 48 FIBRAS</v>
+      </c>
+      <c r="C78" t="str">
+        <v>E ARM H 23 2</v>
+      </c>
+      <c r="D78" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E78" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Geziel</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0380-9221-1</v>
+      </c>
+      <c r="B79" t="str">
+        <v>DROP OPTICO AS CM AR FIG8 LSZH - 4F</v>
+      </c>
+      <c r="C79" t="str">
+        <v>E ARM H 27 1</v>
+      </c>
+      <c r="D79" t="str">
+        <v>ESTOQUE LIVRE</v>
+      </c>
+      <c r="E79" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="F79">
+        <v>8000</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79">
+        <v>8000</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Geziel</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I79"/>
   </ignoredErrors>
 </worksheet>
 </file>